--- a/merged_data_2_ex.xlsx
+++ b/merged_data_2_ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/866792af873d4ffc/Dokumente/MIPS/hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89EBD97-B8E1-4698-97A0-5EDEE902D45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F89EBD97-B8E1-4698-97A0-5EDEE902D45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EAFCD1-20C0-4698-8FB4-B3213177F984}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="1797">
   <si>
     <t>Column1</t>
   </si>
@@ -7756,6 +7756,9 @@
   <si>
     <t xml:space="preserve">Principles of pharmacology and toxicology. Frequently encountered drugs will be used as a focus to illustrate sites and mechanisms of action, distribution, metabolism, elimination and adverse side effects. 
  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points and lines in a triangle. Quadrilaterals. Angles in a circle. Circumscribed and inscribed circles. Congruent and similar triangles. Area. Power of a point with respect to a circle. Cevaâ€™s theorem. Isometries. Homothety. Inversion. </t>
   </si>
 </sst>
 </file>
@@ -8601,8 +8604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17076,6 +17079,9 @@
       <c r="D202" s="1" t="s">
         <v>1018</v>
       </c>
+      <c r="E202" t="s">
+        <v>1796</v>
+      </c>
       <c r="F202" t="s">
         <v>1019</v>
       </c>
